--- a/population_proportion.xlsx
+++ b/population_proportion.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzh/Documents/GitHub/383-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VACHE\Documents\GitHub\Amath383_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE43467-D9AE-3047-90DE-E168FE4E8E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0586289-4B91-444D-B11D-BFE1CDE4974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{9DCC3832-A217-3743-BAC8-B14D66F51BEF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{9DCC3832-A217-3743-BAC8-B14D66F51BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,11 +64,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,6 +84,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +129,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,18 +464,18 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.8203125" style="3"/>
+    <col min="2" max="2" width="25.46875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.17578125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="10.8203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,7 +507,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -516,8 +521,11 @@
         <f t="shared" ref="D3:D66" si="0">B3+C3</f>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,7 +540,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -547,7 +555,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -562,7 +570,7 @@
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -577,7 +585,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -592,7 +600,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -607,7 +615,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -622,7 +630,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -637,7 +645,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -652,7 +660,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -667,7 +675,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -682,7 +690,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -697,7 +705,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -712,7 +720,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -727,7 +735,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -742,7 +750,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -757,7 +765,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -779,7 +787,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -795,7 +803,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -810,7 +818,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -825,7 +833,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -840,7 +848,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -855,7 +863,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -870,7 +878,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -885,7 +893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -900,7 +908,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -915,7 +923,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -930,7 +938,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -945,7 +953,7 @@
         <v>1.3599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -960,7 +968,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -975,7 +983,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -990,7 +998,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1200,7 +1208,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1230,7 +1238,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1245,7 +1253,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1350,7 +1358,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1410,7 +1418,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1440,7 +1448,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>61.849999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1612,7 +1620,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1672,7 +1680,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1702,7 +1710,7 @@
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1732,7 +1740,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1777,7 +1785,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1792,7 +1800,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1912,7 +1920,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1987,7 +1995,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -2040,6 +2048,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/population_proportion.xlsx
+++ b/population_proportion.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzh/Documents/GitHub/383-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzh/Documents/GitHub/Amath383_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE43467-D9AE-3047-90DE-E168FE4E8E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681C6F3-8B92-6341-807B-16263A539552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{9DCC3832-A217-3743-BAC8-B14D66F51BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Age</t>
   </si>
@@ -50,16 +50,31 @@
     <t>total</t>
   </si>
   <si>
-    <t>zero-18</t>
+    <t>count the proportion of 17yrs old people</t>
   </si>
   <si>
-    <t>19-66</t>
+    <t>count the proportion of 66yrs old people</t>
   </si>
   <si>
-    <t>&gt;67</t>
+    <t>66/total =</t>
   </si>
   <si>
-    <t>specific %</t>
+    <t>17/total =</t>
+  </si>
+  <si>
+    <t>sum（0:17）</t>
+  </si>
+  <si>
+    <t>sum(18:66)</t>
+  </si>
+  <si>
+    <t>age&gt;66 total porpotion=</t>
+  </si>
+  <si>
+    <t>total population=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -108,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,8 +134,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D4AFC6-21FD-2344-BC5C-7393826AAD3D}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,10 +492,12 @@
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="23.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,11 +510,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,7 +526,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -517,7 +541,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,7 +556,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -547,7 +571,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -562,7 +586,7 @@
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -577,7 +601,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -592,7 +616,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -607,7 +631,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -622,7 +646,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -637,7 +661,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -652,7 +676,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -667,7 +691,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -682,7 +706,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -697,7 +721,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -712,7 +736,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -727,7 +751,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -741,8 +765,13 @@
         <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -756,8 +785,22 @@
         <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5">
+        <f>D20/100</f>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f>SUM(D2:D19)</f>
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -771,15 +814,15 @@
         <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <f>SUM(D2:D20)</f>
-        <v>23.07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="8">
+        <v>45310</v>
+      </c>
+      <c r="F20" s="5">
+        <f>SUM(D3:D20)</f>
+        <v>21.979999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -793,9 +836,8 @@
         <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -810,7 +852,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -825,7 +867,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -840,7 +882,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -855,7 +897,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -870,7 +912,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -885,7 +927,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -900,7 +942,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -915,7 +957,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -930,7 +972,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -945,7 +987,7 @@
         <v>1.3599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1440,7 +1482,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1455,7 +1497,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1470,7 +1512,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1484,8 +1526,20 @@
         <f t="shared" ref="D67:D103" si="1">B67+C67</f>
         <v>1.23</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <f>SUM(D20:D68)</f>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1499,15 +1553,15 @@
         <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="3">
-        <f>SUM(D21:D68)</f>
-        <v>61.849999999999994</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="5">
+        <f>1.22</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1522,7 +1576,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1537,7 +1591,7 @@
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1552,7 +1606,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1567,7 +1621,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1582,7 +1636,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1597,7 +1651,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1612,7 +1666,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1627,7 +1681,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1642,7 +1696,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1657,7 +1711,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1672,7 +1726,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1927,7 +1981,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1942,7 +1996,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1957,7 +2011,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1972,7 +2026,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1987,7 +2041,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2002,7 +2056,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2017,7 +2071,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -2031,15 +2085,52 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="5">
         <f>SUM(D69:D103)</f>
         <v>16.480000000000004</v>
       </c>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="5">
+        <v>334.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E106" s="4">
+        <f>334.9*16.48</f>
+        <v>5519.152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="4">
+        <f>16.48*334.9</f>
+        <v>5519.152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E109" s="4">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>